--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.572976999999999</v>
+        <v>5.94498</v>
       </c>
       <c r="H2">
-        <v>22.718931</v>
+        <v>17.83494</v>
       </c>
       <c r="I2">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="J2">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N2">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q2">
-        <v>9.898688723213331</v>
+        <v>2.54886856014</v>
       </c>
       <c r="R2">
-        <v>89.08819850892</v>
+        <v>22.93981704126</v>
       </c>
       <c r="S2">
-        <v>0.005650257850220919</v>
+        <v>0.001928082880623296</v>
       </c>
       <c r="T2">
-        <v>0.005650257850220919</v>
+        <v>0.001928082880623296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.572976999999999</v>
+        <v>5.94498</v>
       </c>
       <c r="H3">
-        <v>22.718931</v>
+        <v>17.83494</v>
       </c>
       <c r="I3">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="J3">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
         <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q3">
-        <v>607.551447597549</v>
+        <v>476.9433744402599</v>
       </c>
       <c r="R3">
-        <v>5467.963028377941</v>
+        <v>4292.490369962339</v>
       </c>
       <c r="S3">
-        <v>0.3467956647783914</v>
+        <v>0.3607821798525625</v>
       </c>
       <c r="T3">
-        <v>0.3467956647783914</v>
+        <v>0.3607821798525625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.572976999999999</v>
+        <v>5.94498</v>
       </c>
       <c r="H4">
-        <v>22.718931</v>
+        <v>17.83494</v>
       </c>
       <c r="I4">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="J4">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N4">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q4">
-        <v>170.4969338639173</v>
+        <v>139.08951105578</v>
       </c>
       <c r="R4">
-        <v>1534.472404775256</v>
+        <v>1251.80559950202</v>
       </c>
       <c r="S4">
-        <v>0.09732113676269541</v>
+        <v>0.105213783611574</v>
       </c>
       <c r="T4">
-        <v>0.09732113676269544</v>
+        <v>0.1052137836115739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>2.784025666666667</v>
       </c>
       <c r="H5">
-        <v>8.352077000000001</v>
+        <v>8.352077</v>
       </c>
       <c r="I5">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="J5">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N5">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q5">
-        <v>3.639018509071112</v>
+        <v>1.193631516403667</v>
       </c>
       <c r="R5">
-        <v>32.75116658164001</v>
+        <v>10.742683647633</v>
       </c>
       <c r="S5">
-        <v>0.002077183501059077</v>
+        <v>0.0009029184668604197</v>
       </c>
       <c r="T5">
-        <v>0.002077183501059077</v>
+        <v>0.0009029184668604197</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>2.784025666666667</v>
       </c>
       <c r="H6">
-        <v>8.352077000000001</v>
+        <v>8.352077</v>
       </c>
       <c r="I6">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="J6">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
         <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q6">
-        <v>223.3519029480831</v>
+        <v>223.3519029480829</v>
       </c>
       <c r="R6">
         <v>2010.167126532747</v>
       </c>
       <c r="S6">
-        <v>0.1274912140670401</v>
+        <v>0.1689537809690669</v>
       </c>
       <c r="T6">
-        <v>0.1274912140670401</v>
+        <v>0.1689537809690669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>2.784025666666667</v>
       </c>
       <c r="H7">
-        <v>8.352077000000001</v>
+        <v>8.352077</v>
       </c>
       <c r="I7">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="J7">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N7">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q7">
-        <v>62.67916038370578</v>
+        <v>65.13541992461012</v>
       </c>
       <c r="R7">
-        <v>564.1124434533522</v>
+        <v>586.218779321491</v>
       </c>
       <c r="S7">
-        <v>0.03577781137543677</v>
+        <v>0.04927146501110762</v>
       </c>
       <c r="T7">
-        <v>0.03577781137543677</v>
+        <v>0.04927146501110762</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.480551000000001</v>
+        <v>3.976005</v>
       </c>
       <c r="H8">
-        <v>19.441653</v>
+        <v>11.928015</v>
       </c>
       <c r="I8">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="J8">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N8">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q8">
-        <v>8.470771415773335</v>
+        <v>1.704684311715</v>
       </c>
       <c r="R8">
-        <v>76.23694274196001</v>
+        <v>15.342158805435</v>
       </c>
       <c r="S8">
-        <v>0.00483519019818851</v>
+        <v>0.001289502601147965</v>
       </c>
       <c r="T8">
-        <v>0.004835190198188511</v>
+        <v>0.001289502601147965</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.480551000000001</v>
+        <v>3.976005</v>
       </c>
       <c r="H9">
-        <v>19.441653</v>
+        <v>11.928015</v>
       </c>
       <c r="I9">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="J9">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
         <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q9">
-        <v>519.9102204165872</v>
+        <v>318.9799194431849</v>
       </c>
       <c r="R9">
-        <v>4679.191983749284</v>
+        <v>2870.819274988665</v>
       </c>
       <c r="S9">
-        <v>0.2967692879795185</v>
+        <v>0.2412912660773775</v>
       </c>
       <c r="T9">
-        <v>0.2967692879795185</v>
+        <v>0.2412912660773775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.480551000000001</v>
+        <v>3.976005</v>
       </c>
       <c r="H10">
-        <v>19.441653</v>
+        <v>11.928015</v>
       </c>
       <c r="I10">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="J10">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N10">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q10">
-        <v>145.9022092961254</v>
+        <v>93.02312058330502</v>
       </c>
       <c r="R10">
-        <v>1313.119883665128</v>
+        <v>837.2080852497451</v>
       </c>
       <c r="S10">
-        <v>0.08328225348744921</v>
+        <v>0.07036702052967984</v>
       </c>
       <c r="T10">
-        <v>0.08328225348744923</v>
+        <v>0.07036702052967984</v>
       </c>
     </row>
   </sheetData>
